--- a/data/case1/9/cost_6.xlsx
+++ b/data/case1/9/cost_6.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>157.80794758270596</v>
+        <v>157.80043957781027</v>
       </c>
       <c r="B1" s="0">
-        <v>5.5960754214707809</v>
+        <v>5.7537676359863399</v>
       </c>
       <c r="C1" s="0">
-        <v>1.3548597521200261</v>
+        <v>1.0634050880626225</v>
       </c>
     </row>
   </sheetData>
